--- a/docs/85b_test_definitions.xlsx
+++ b/docs/85b_test_definitions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC59F4E-7167-4A01-9D20-F00A08C5E8F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AADEC3-0056-4A73-AC6F-C4E54E5A80A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="693">
   <si>
     <t>Test Case</t>
   </si>
@@ -1869,9 +1869,6 @@
     <t>CMS.10</t>
   </si>
   <si>
-    <t>Confirm that digestAlgorithm in signer info matches attribute from signedAttributes bag</t>
-  </si>
-  <si>
     <t>CMS.11</t>
   </si>
   <si>
@@ -2106,31 +2103,13 @@
     <t>Test is there but I'm not 100% sure if that is enough, might require additional checks</t>
   </si>
   <si>
-    <t>Test is pretty much there except I need to figure out how to squeeze curve name out of java or bouncy castle EC key</t>
-  </si>
-  <si>
-    <t>Yes (but same issue as with second SP800-78 test)</t>
-  </si>
-  <si>
-    <t>Test is there but I have a question if my assumption was correct</t>
-  </si>
-  <si>
-    <t>Test is there but I'm not sure how exactly to test this condition</t>
-  </si>
-  <si>
-    <t>Yes not sure about what is the oid for piv interim extension</t>
-  </si>
-  <si>
-    <t>Yes  but not sure about what is the oid for piv interim extension</t>
-  </si>
-  <si>
     <t>Test placeholder written but there is an outstanding question regarding this test</t>
   </si>
   <si>
-    <t>Test Atoms Exist</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>All Test Atoms Exist</t>
   </si>
 </sst>
 </file>
@@ -4408,7 +4387,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:E58"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4435,7 +4414,7 @@
         <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4452,7 +4431,7 @@
         <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -4469,7 +4448,7 @@
         <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4486,7 +4465,7 @@
         <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4503,7 +4482,7 @@
         <v>321</v>
       </c>
       <c r="E5" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4520,7 +4499,7 @@
         <v>323</v>
       </c>
       <c r="E6" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4537,7 +4516,7 @@
         <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4554,7 +4533,7 @@
         <v>319</v>
       </c>
       <c r="E8" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4571,7 +4550,7 @@
         <v>319</v>
       </c>
       <c r="E9" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4588,7 +4567,7 @@
         <v>319</v>
       </c>
       <c r="E10" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4605,7 +4584,7 @@
         <v>331</v>
       </c>
       <c r="E11" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4622,7 +4601,7 @@
         <v>334</v>
       </c>
       <c r="E12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,7 +4618,7 @@
         <v>76.5</v>
       </c>
       <c r="E13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4656,7 +4635,7 @@
         <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4673,7 +4652,7 @@
         <v>342</v>
       </c>
       <c r="E15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4687,7 +4666,7 @@
         <v>344</v>
       </c>
       <c r="E16" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4701,7 +4680,7 @@
         <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4718,7 +4697,7 @@
         <v>349</v>
       </c>
       <c r="E18" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4732,7 +4711,7 @@
         <v>351</v>
       </c>
       <c r="E19" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -4746,7 +4725,7 @@
         <v>353</v>
       </c>
       <c r="E20" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4760,7 +4739,7 @@
         <v>355</v>
       </c>
       <c r="E21" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -4774,7 +4753,7 @@
         <v>357</v>
       </c>
       <c r="E22" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4788,7 +4767,7 @@
         <v>359</v>
       </c>
       <c r="E23" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4802,7 +4781,7 @@
         <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4819,7 +4798,7 @@
         <v>364</v>
       </c>
       <c r="E25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4836,7 +4815,7 @@
         <v>367</v>
       </c>
       <c r="E26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4853,7 +4832,7 @@
         <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4870,7 +4849,7 @@
         <v>342</v>
       </c>
       <c r="E28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4884,7 +4863,7 @@
         <v>371</v>
       </c>
       <c r="E29" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4898,7 +4877,7 @@
         <v>346</v>
       </c>
       <c r="E30" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4915,7 +4894,7 @@
         <v>374</v>
       </c>
       <c r="E31" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4929,7 +4908,7 @@
         <v>376</v>
       </c>
       <c r="E32" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4943,7 +4922,7 @@
         <v>378</v>
       </c>
       <c r="E33" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,7 +4936,7 @@
         <v>355</v>
       </c>
       <c r="E34" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -4971,7 +4950,7 @@
         <v>357</v>
       </c>
       <c r="E35" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -4985,7 +4964,7 @@
         <v>359</v>
       </c>
       <c r="E36" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4999,7 +4978,7 @@
         <v>361</v>
       </c>
       <c r="E37" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5016,7 +4995,7 @@
         <v>385</v>
       </c>
       <c r="E38" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5033,7 +5012,7 @@
         <v>388</v>
       </c>
       <c r="E39" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5050,7 +5029,7 @@
         <v>391</v>
       </c>
       <c r="E40" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5067,7 +5046,7 @@
         <v>394</v>
       </c>
       <c r="E41" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5084,7 +5063,7 @@
         <v>397</v>
       </c>
       <c r="E42" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5101,7 +5080,7 @@
         <v>400</v>
       </c>
       <c r="E43" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5118,7 +5097,7 @@
         <v>403</v>
       </c>
       <c r="E44" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5135,7 +5114,7 @@
         <v>406</v>
       </c>
       <c r="E45" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5152,7 +5131,7 @@
         <v>403</v>
       </c>
       <c r="E46" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5169,7 +5148,7 @@
         <v>406</v>
       </c>
       <c r="E47" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5186,7 +5165,7 @@
         <v>403</v>
       </c>
       <c r="E48" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5203,7 +5182,7 @@
         <v>415</v>
       </c>
       <c r="E49" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5220,7 +5199,7 @@
         <v>418</v>
       </c>
       <c r="E50" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5237,7 +5216,7 @@
         <v>421</v>
       </c>
       <c r="E51" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5254,7 +5233,7 @@
         <v>424</v>
       </c>
       <c r="E52" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5271,7 +5250,7 @@
         <v>421</v>
       </c>
       <c r="E53" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5288,7 +5267,7 @@
         <v>429</v>
       </c>
       <c r="E54" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5305,7 +5284,7 @@
         <v>421</v>
       </c>
       <c r="E55" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5322,7 +5301,7 @@
         <v>434</v>
       </c>
       <c r="E56" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,7 +5318,7 @@
         <v>421</v>
       </c>
       <c r="E57" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5356,12 +5335,12 @@
         <v>439</v>
       </c>
       <c r="E58" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5370,7 +5349,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5388,7 +5367,7 @@
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5399,7 +5378,7 @@
         <v>442</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5410,7 +5389,7 @@
         <v>444</v>
       </c>
       <c r="C3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5421,7 +5400,7 @@
         <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -5432,7 +5411,7 @@
         <v>448</v>
       </c>
       <c r="C5" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5443,7 +5422,7 @@
         <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -5457,7 +5436,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5478,7 +5457,7 @@
         <v>451</v>
       </c>
       <c r="D1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5492,7 +5471,7 @@
         <v>454</v>
       </c>
       <c r="D2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5506,7 +5485,7 @@
         <v>454</v>
       </c>
       <c r="D3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5520,7 +5499,7 @@
         <v>454</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,7 +5514,7 @@
         <v>454</v>
       </c>
       <c r="D5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5550,7 +5529,7 @@
         <v>454</v>
       </c>
       <c r="D6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,7 +5543,7 @@
         <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5578,7 +5557,7 @@
         <v>454</v>
       </c>
       <c r="D8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5592,7 +5571,7 @@
         <v>454</v>
       </c>
       <c r="D9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5606,7 +5585,7 @@
         <v>454</v>
       </c>
       <c r="D10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,7 +5599,7 @@
         <v>454</v>
       </c>
       <c r="D11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,7 +5613,7 @@
         <v>454</v>
       </c>
       <c r="D12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5648,7 +5627,7 @@
         <v>454</v>
       </c>
       <c r="D13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5662,7 +5641,7 @@
         <v>454</v>
       </c>
       <c r="D14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5676,7 +5655,7 @@
         <v>454</v>
       </c>
       <c r="D15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5690,7 +5669,7 @@
         <v>454</v>
       </c>
       <c r="D16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5704,7 +5683,7 @@
         <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,7 +5697,7 @@
         <v>454</v>
       </c>
       <c r="D18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5732,7 +5711,7 @@
         <v>454</v>
       </c>
       <c r="D19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5746,7 +5725,7 @@
         <v>454</v>
       </c>
       <c r="D20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,7 +5739,7 @@
         <v>454</v>
       </c>
       <c r="D21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5774,7 +5753,7 @@
         <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5788,7 +5767,7 @@
         <v>454</v>
       </c>
       <c r="D23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5802,7 +5781,7 @@
         <v>454</v>
       </c>
       <c r="D24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5816,7 +5795,7 @@
         <v>454</v>
       </c>
       <c r="D25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5830,7 +5809,7 @@
         <v>454</v>
       </c>
       <c r="D26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,7 +5823,7 @@
         <v>454</v>
       </c>
       <c r="D27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,7 +5837,7 @@
         <v>454</v>
       </c>
       <c r="D28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5872,7 +5851,7 @@
         <v>454</v>
       </c>
       <c r="D29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5886,7 +5865,7 @@
         <v>454</v>
       </c>
       <c r="D30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5900,7 +5879,7 @@
         <v>454</v>
       </c>
       <c r="D31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,7 +5893,7 @@
         <v>454</v>
       </c>
       <c r="D32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5928,7 +5907,7 @@
         <v>454</v>
       </c>
       <c r="D33" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,7 +5921,7 @@
         <v>454</v>
       </c>
       <c r="D34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,7 +5932,7 @@
         <v>519</v>
       </c>
       <c r="D35" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,7 +5943,7 @@
         <v>521</v>
       </c>
       <c r="D36" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,7 +5954,7 @@
         <v>523</v>
       </c>
       <c r="D37" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -5989,7 +5968,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C27" sqref="C27:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6007,7 +5986,7 @@
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6018,7 +5997,7 @@
         <v>524</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6029,7 +6008,7 @@
         <v>526</v>
       </c>
       <c r="C3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6040,7 +6019,7 @@
         <v>528</v>
       </c>
       <c r="C4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6051,7 +6030,7 @@
         <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6062,7 +6041,7 @@
         <v>531</v>
       </c>
       <c r="C6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6073,7 +6052,7 @@
         <v>532</v>
       </c>
       <c r="C7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6084,7 +6063,7 @@
         <v>533</v>
       </c>
       <c r="C8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6095,7 +6074,7 @@
         <v>535</v>
       </c>
       <c r="C9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6103,10 +6082,10 @@
         <v>536</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C10" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6117,7 +6096,7 @@
         <v>538</v>
       </c>
       <c r="C11" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6128,7 +6107,7 @@
         <v>540</v>
       </c>
       <c r="C12" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6139,7 +6118,7 @@
         <v>542</v>
       </c>
       <c r="C13" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6150,7 +6129,7 @@
         <v>544</v>
       </c>
       <c r="C14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6161,7 +6140,7 @@
         <v>546</v>
       </c>
       <c r="C15" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -6172,7 +6151,7 @@
         <v>548</v>
       </c>
       <c r="C16" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6183,7 +6162,7 @@
         <v>550</v>
       </c>
       <c r="C17" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6194,7 +6173,7 @@
         <v>552</v>
       </c>
       <c r="C18" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6205,7 +6184,7 @@
         <v>554</v>
       </c>
       <c r="C19" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6216,7 +6195,7 @@
         <v>556</v>
       </c>
       <c r="C20" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6227,7 +6206,7 @@
         <v>558</v>
       </c>
       <c r="C21" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6238,7 +6217,7 @@
         <v>560</v>
       </c>
       <c r="C22" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6249,7 +6228,7 @@
         <v>562</v>
       </c>
       <c r="C23" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6260,7 +6239,7 @@
         <v>564</v>
       </c>
       <c r="C24" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6271,7 +6250,7 @@
         <v>566</v>
       </c>
       <c r="C25" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6282,7 +6261,7 @@
         <v>568</v>
       </c>
       <c r="C26" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6293,7 +6272,7 @@
         <v>570</v>
       </c>
       <c r="C27" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6304,7 +6283,7 @@
         <v>572</v>
       </c>
       <c r="C28" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6315,7 +6294,7 @@
         <v>574</v>
       </c>
       <c r="C29" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6326,7 +6305,7 @@
         <v>576</v>
       </c>
       <c r="C30" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6337,7 +6316,7 @@
         <v>578</v>
       </c>
       <c r="C31" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6348,7 +6327,7 @@
         <v>580</v>
       </c>
       <c r="C32" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6359,7 +6338,7 @@
         <v>582</v>
       </c>
       <c r="C33" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6370,7 +6349,7 @@
         <v>584</v>
       </c>
       <c r="C34" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6381,7 +6360,7 @@
         <v>586</v>
       </c>
       <c r="C35" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6392,7 +6371,7 @@
         <v>588</v>
       </c>
       <c r="C36" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6403,7 +6382,7 @@
         <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6414,7 +6393,7 @@
         <v>592</v>
       </c>
       <c r="C38" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -6428,7 +6407,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6447,7 +6426,7 @@
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6458,7 +6437,7 @@
         <v>594</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6469,7 +6448,7 @@
         <v>596</v>
       </c>
       <c r="C3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6480,7 +6459,7 @@
         <v>598</v>
       </c>
       <c r="C4" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6491,7 +6470,7 @@
         <v>600</v>
       </c>
       <c r="C5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6502,7 +6481,7 @@
         <v>602</v>
       </c>
       <c r="C6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6513,7 +6492,7 @@
         <v>604</v>
       </c>
       <c r="C7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6524,7 +6503,7 @@
         <v>606</v>
       </c>
       <c r="C8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6535,7 +6514,7 @@
         <v>608</v>
       </c>
       <c r="C9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6546,7 +6525,7 @@
         <v>610</v>
       </c>
       <c r="C10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,117 +6533,153 @@
         <v>611</v>
       </c>
       <c r="B11" t="s">
-        <v>612</v>
+        <v>664</v>
       </c>
       <c r="C11" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>612</v>
+      </c>
+      <c r="B12" t="s">
         <v>613</v>
       </c>
-      <c r="B12" t="s">
-        <v>614</v>
+      <c r="C12" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>614</v>
+      </c>
+      <c r="B13" t="s">
         <v>615</v>
       </c>
-      <c r="B13" t="s">
-        <v>616</v>
+      <c r="C13" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" t="s">
+        <v>688</v>
+      </c>
+      <c r="D14" t="s">
         <v>618</v>
-      </c>
-      <c r="D14" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B15" t="s">
         <v>620</v>
       </c>
-      <c r="B15" t="s">
-        <v>621</v>
+      <c r="C15" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B16" t="s">
         <v>622</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>624</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>626</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>628</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>630</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>632</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>634</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>636</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>638</v>
-      </c>
-      <c r="B24" t="s">
-        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -6678,7 +6693,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6696,40 +6711,40 @@
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>641</v>
-      </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>643</v>
-      </c>
       <c r="C3" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>645</v>
-      </c>
       <c r="C4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -6742,8 +6757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6761,7 +6776,7 @@
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6769,225 +6784,225 @@
         <v>421</v>
       </c>
       <c r="B2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="C2" t="s">
-        <v>692</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B3" t="s">
         <v>648</v>
       </c>
-      <c r="B3" t="s">
-        <v>649</v>
-      </c>
       <c r="C3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B4" t="s">
         <v>650</v>
       </c>
-      <c r="B4" t="s">
-        <v>651</v>
-      </c>
       <c r="C4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B5" t="s">
         <v>652</v>
       </c>
-      <c r="B5" t="s">
-        <v>653</v>
-      </c>
       <c r="C5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B6" t="s">
         <v>654</v>
       </c>
-      <c r="B6" t="s">
-        <v>655</v>
-      </c>
       <c r="C6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B7" t="s">
         <v>656</v>
       </c>
-      <c r="B7" t="s">
-        <v>657</v>
-      </c>
       <c r="C7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B8" t="s">
         <v>658</v>
       </c>
-      <c r="B8" t="s">
-        <v>659</v>
-      </c>
       <c r="C8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" t="s">
         <v>660</v>
       </c>
-      <c r="B9" t="s">
-        <v>661</v>
-      </c>
       <c r="C9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>661</v>
+      </c>
+      <c r="B10" t="s">
         <v>662</v>
       </c>
-      <c r="B10" t="s">
-        <v>663</v>
-      </c>
       <c r="C10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B11" t="s">
         <v>664</v>
       </c>
-      <c r="B11" t="s">
-        <v>665</v>
-      </c>
       <c r="C11" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>665</v>
+      </c>
+      <c r="B12" t="s">
         <v>666</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>688</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="C12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>668</v>
+      </c>
+      <c r="B13" t="s">
         <v>669</v>
       </c>
-      <c r="B13" t="s">
-        <v>670</v>
-      </c>
       <c r="C13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>670</v>
+      </c>
+      <c r="B14" t="s">
         <v>671</v>
       </c>
-      <c r="B14" t="s">
-        <v>672</v>
-      </c>
       <c r="C14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B15" t="s">
         <v>673</v>
       </c>
-      <c r="B15" t="s">
-        <v>674</v>
-      </c>
       <c r="C15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>674</v>
+      </c>
+      <c r="B16" t="s">
         <v>675</v>
       </c>
-      <c r="B16" t="s">
-        <v>676</v>
-      </c>
       <c r="C16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>676</v>
+      </c>
+      <c r="B17" t="s">
         <v>677</v>
       </c>
-      <c r="B17" t="s">
-        <v>678</v>
-      </c>
       <c r="C17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>678</v>
+      </c>
+      <c r="B18" t="s">
         <v>679</v>
       </c>
-      <c r="B18" t="s">
-        <v>680</v>
-      </c>
       <c r="C18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>680</v>
+      </c>
+      <c r="B19" t="s">
         <v>681</v>
       </c>
-      <c r="B19" t="s">
-        <v>682</v>
-      </c>
       <c r="C19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>682</v>
+      </c>
+      <c r="B20" t="s">
         <v>683</v>
       </c>
-      <c r="B20" t="s">
-        <v>684</v>
-      </c>
       <c r="C20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>684</v>
+      </c>
+      <c r="B21" t="s">
         <v>685</v>
       </c>
-      <c r="B21" t="s">
-        <v>686</v>
-      </c>
       <c r="C21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/docs/85b_test_definitions.xlsx
+++ b/docs/85b_test_definitions.xlsx
@@ -5,30 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AADEC3-0056-4A73-AC6F-C4E54E5A80A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC1FF6BE-22C6-4A0D-988E-EBBFC814890F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2126" yWindow="0" windowWidth="24643" windowHeight="17846" tabRatio="634" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
     <sheet name="Step Overview" sheetId="2" r:id="rId2"/>
     <sheet name="BER-TLV" sheetId="3" r:id="rId3"/>
     <sheet name="SP800-73-4" sheetId="4" r:id="rId4"/>
-    <sheet name="SP800-76" sheetId="5" r:id="rId5"/>
-    <sheet name="CMS" sheetId="6" r:id="rId6"/>
-    <sheet name="SP800-78" sheetId="7" r:id="rId7"/>
-    <sheet name="PKIX" sheetId="8" r:id="rId8"/>
-    <sheet name="Blank" sheetId="9" r:id="rId9"/>
+    <sheet name="SP800-76 " sheetId="5" r:id="rId5"/>
+    <sheet name="CMS (PIV)" sheetId="6" r:id="rId6"/>
+    <sheet name="CMS (PIV-I)" sheetId="12" r:id="rId7"/>
+    <sheet name="SP800-78" sheetId="7" r:id="rId8"/>
+    <sheet name="PKIX (PIV)" sheetId="8" r:id="rId9"/>
+    <sheet name="PKIX (PIV-I)" sheetId="11" r:id="rId10"/>
+    <sheet name="Blank" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="711">
   <si>
     <t>Test Case</t>
   </si>
@@ -1911,9 +1913,6 @@
     <t>CMS.17</t>
   </si>
   <si>
-    <t>Confirm that signed attributes include pivFASC-N attribute and that it matches FACSC-N read from CHUID container</t>
-  </si>
-  <si>
     <t>CMS.18</t>
   </si>
   <si>
@@ -2110,6 +2109,63 @@
   </si>
   <si>
     <t>All Test Atoms Exist</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.2.1.3.13</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.2.1.3.17</t>
+  </si>
+  <si>
+    <t>PIV Auth production certificate policy OID</t>
+  </si>
+  <si>
+    <t>Card Auth production certificate policy OID</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.6.8</t>
+  </si>
+  <si>
+    <t>Card Auth id-PIV-cardAuth EKU keyPurposeID OID</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.2.1.3.18</t>
+  </si>
+  <si>
+    <t>PIV-I Auth production certificate policy OID</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.2.1.3.19</t>
+  </si>
+  <si>
+    <t>PIV-I Card Auth production certificate policy OID</t>
+  </si>
+  <si>
+    <t>OID for UUID</t>
+  </si>
+  <si>
+    <t>1.3.6.1.1.16.4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Number of years the card is valid (as if we knew when it was issued)</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.6.6, 1.3.6.1.1.16.4</t>
+  </si>
+  <si>
+    <t>OID for piv-FASC-N and entryUUID</t>
+  </si>
+  <si>
+    <t>OID for piv-FASC-N, OID for entryUUID</t>
+  </si>
+  <si>
+    <t>Confirm that signed attributes include pivFASC-N and entryUUID attributes and that they match FASC-N and GUID read from CHUID container</t>
+  </si>
+  <si>
+    <t>Confirm that signed attributes include an entryUUID attribute and it matches the GUID read from CHUID container</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2188,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2151,6 +2207,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2164,7 +2226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2175,7 +2237,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2560,16 +2632,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.25" customWidth="1"/>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="1" max="1" width="37.2109375" customWidth="1"/>
+    <col min="2" max="2" width="57.35546875" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2585,7 +2657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2593,7 +2665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2601,7 +2673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2609,7 +2681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2625,7 +2697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2633,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2641,7 +2713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2649,7 +2721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2657,7 +2729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2665,7 +2737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2673,7 +2745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2681,7 +2753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2689,7 +2761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2697,7 +2769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2705,7 +2777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2716,7 +2788,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2727,7 +2799,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2738,7 +2810,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2749,7 +2821,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2760,7 +2832,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2771,7 +2843,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2782,7 +2854,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2793,7 +2865,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2804,7 +2876,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -2815,7 +2887,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2823,7 +2895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2831,7 +2903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2839,7 +2911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2847,7 +2919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2855,7 +2927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2863,7 +2935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2874,7 +2946,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2885,7 +2957,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2896,7 +2968,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2907,7 +2979,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -2918,7 +2990,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2929,7 +3001,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -2940,7 +3012,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -2951,7 +3023,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -2962,7 +3034,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -2973,7 +3045,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -2984,7 +3056,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -2995,7 +3067,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3003,7 +3075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3011,7 +3083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -3019,7 +3091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -3027,7 +3099,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -3035,7 +3107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -3043,7 +3115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -3051,7 +3123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -3059,7 +3131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -3067,7 +3139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -3075,7 +3147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -3083,7 +3155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3091,7 +3163,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -3099,7 +3171,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -3107,7 +3179,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -3115,7 +3187,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -3123,7 +3195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -3131,7 +3203,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -3139,7 +3211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -3147,7 +3219,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -3155,7 +3227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -3163,7 +3235,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -3171,7 +3243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -3179,7 +3251,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -3187,7 +3259,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -3195,7 +3267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -3203,7 +3275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -3211,7 +3283,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -3219,7 +3291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -3227,7 +3299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -3235,7 +3307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -3243,7 +3315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -3251,7 +3323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -3259,7 +3331,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -3267,7 +3339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>130</v>
       </c>
@@ -3275,7 +3347,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>132</v>
       </c>
@@ -3283,7 +3355,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -3291,7 +3363,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -3299,7 +3371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -3307,7 +3379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>139</v>
       </c>
@@ -3315,7 +3387,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>141</v>
       </c>
@@ -3323,7 +3395,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>143</v>
       </c>
@@ -3331,7 +3403,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>144</v>
       </c>
@@ -3339,7 +3411,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -3347,7 +3419,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>147</v>
       </c>
@@ -3355,7 +3427,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>148</v>
       </c>
@@ -3363,7 +3435,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>150</v>
       </c>
@@ -3371,7 +3443,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>151</v>
       </c>
@@ -3382,7 +3454,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>153</v>
       </c>
@@ -3393,7 +3465,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>155</v>
       </c>
@@ -3404,7 +3476,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>157</v>
       </c>
@@ -3415,7 +3487,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>159</v>
       </c>
@@ -3426,7 +3498,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -3437,7 +3509,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>162</v>
       </c>
@@ -3448,7 +3520,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -3459,7 +3531,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -3470,7 +3542,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
@@ -3481,7 +3553,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
@@ -3492,7 +3564,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
@@ -3503,7 +3575,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>170</v>
       </c>
@@ -3514,7 +3586,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>171</v>
       </c>
@@ -3525,7 +3597,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>173</v>
       </c>
@@ -3536,7 +3608,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>175</v>
       </c>
@@ -3547,7 +3619,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>176</v>
       </c>
@@ -3558,7 +3630,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>177</v>
       </c>
@@ -3569,7 +3641,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>179</v>
       </c>
@@ -3580,7 +3652,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>181</v>
       </c>
@@ -3591,7 +3663,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>182</v>
       </c>
@@ -3602,7 +3674,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>184</v>
       </c>
@@ -3613,7 +3685,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>185</v>
       </c>
@@ -3624,7 +3696,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>186</v>
       </c>
@@ -3635,7 +3707,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>188</v>
       </c>
@@ -3646,7 +3718,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>190</v>
       </c>
@@ -3657,7 +3729,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>192</v>
       </c>
@@ -3668,7 +3740,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>194</v>
       </c>
@@ -3679,7 +3751,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>196</v>
       </c>
@@ -3690,7 +3762,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>198</v>
       </c>
@@ -3701,7 +3773,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>200</v>
       </c>
@@ -3712,7 +3784,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>202</v>
       </c>
@@ -3723,7 +3795,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>204</v>
       </c>
@@ -3734,7 +3806,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>206</v>
       </c>
@@ -3745,7 +3817,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>208</v>
       </c>
@@ -3756,7 +3828,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>210</v>
       </c>
@@ -3767,7 +3839,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>212</v>
       </c>
@@ -3778,7 +3850,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>214</v>
       </c>
@@ -3789,7 +3861,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>216</v>
       </c>
@@ -3800,7 +3872,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>217</v>
       </c>
@@ -3811,7 +3883,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>219</v>
       </c>
@@ -3822,7 +3894,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>221</v>
       </c>
@@ -3833,7 +3905,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>223</v>
       </c>
@@ -3844,7 +3916,7 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>225</v>
       </c>
@@ -3855,7 +3927,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>227</v>
       </c>
@@ -3866,7 +3938,7 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>229</v>
       </c>
@@ -3877,7 +3949,7 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>231</v>
       </c>
@@ -3888,7 +3960,7 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>232</v>
       </c>
@@ -3899,7 +3971,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>234</v>
       </c>
@@ -3910,7 +3982,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>235</v>
       </c>
@@ -3921,7 +3993,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>237</v>
       </c>
@@ -3932,7 +4004,7 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>239</v>
       </c>
@@ -3943,7 +4015,7 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>241</v>
       </c>
@@ -3954,7 +4026,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>243</v>
       </c>
@@ -3965,7 +4037,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>245</v>
       </c>
@@ -3976,7 +4048,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>246</v>
       </c>
@@ -3987,7 +4059,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>248</v>
       </c>
@@ -3998,7 +4070,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>250</v>
       </c>
@@ -4009,7 +4081,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>251</v>
       </c>
@@ -4020,7 +4092,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>253</v>
       </c>
@@ -4031,7 +4103,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>255</v>
       </c>
@@ -4042,7 +4114,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>256</v>
       </c>
@@ -4053,7 +4125,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>258</v>
       </c>
@@ -4064,7 +4136,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>260</v>
       </c>
@@ -4075,7 +4147,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>261</v>
       </c>
@@ -4086,7 +4158,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>263</v>
       </c>
@@ -4097,7 +4169,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>265</v>
       </c>
@@ -4108,7 +4180,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>267</v>
       </c>
@@ -4119,7 +4191,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>269</v>
       </c>
@@ -4130,7 +4202,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>271</v>
       </c>
@@ -4141,7 +4213,7 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>272</v>
       </c>
@@ -4152,7 +4224,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>274</v>
       </c>
@@ -4163,7 +4235,7 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>275</v>
       </c>
@@ -4174,7 +4246,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>277</v>
       </c>
@@ -4185,7 +4257,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>279</v>
       </c>
@@ -4196,7 +4268,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>281</v>
       </c>
@@ -4207,7 +4279,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>283</v>
       </c>
@@ -4218,7 +4290,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>285</v>
       </c>
@@ -4229,7 +4301,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>287</v>
       </c>
@@ -4240,7 +4312,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>289</v>
       </c>
@@ -4251,7 +4323,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>291</v>
       </c>
@@ -4262,7 +4334,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>293</v>
       </c>
@@ -4273,7 +4345,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>294</v>
       </c>
@@ -4284,7 +4356,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>296</v>
       </c>
@@ -4295,7 +4367,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>297</v>
       </c>
@@ -4306,7 +4378,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>299</v>
       </c>
@@ -4317,7 +4389,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>301</v>
       </c>
@@ -4328,7 +4400,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>302</v>
       </c>
@@ -4339,7 +4411,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>304</v>
       </c>
@@ -4350,7 +4422,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>306</v>
       </c>
@@ -4361,7 +4433,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>307</v>
       </c>
@@ -4382,25 +4454,342 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341CFAE1-1065-4E80-97FF-7BFAC3AC42A8}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="C13:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
+    <col min="2" max="3" width="44.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" style="6" customWidth="1"/>
+    <col min="6" max="1026" width="10.5" style="6" customWidth="1"/>
+    <col min="1027" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="75.640625" customWidth="1"/>
+    <col min="3" max="1025" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="82.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="78.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="29.2109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="82.2109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="123.640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>309</v>
       </c>
@@ -4414,10 +4803,10 @@
         <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>313</v>
       </c>
@@ -4431,10 +4820,10 @@
         <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.3" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>313</v>
       </c>
@@ -4448,10 +4837,10 @@
         <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -4465,10 +4854,10 @@
         <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -4482,10 +4871,10 @@
         <v>321</v>
       </c>
       <c r="E5" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>313</v>
       </c>
@@ -4499,10 +4888,10 @@
         <v>323</v>
       </c>
       <c r="E6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -4516,10 +4905,10 @@
         <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>313</v>
       </c>
@@ -4533,10 +4922,10 @@
         <v>319</v>
       </c>
       <c r="E8" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>313</v>
       </c>
@@ -4550,10 +4939,10 @@
         <v>319</v>
       </c>
       <c r="E9" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>313</v>
       </c>
@@ -4567,10 +4956,10 @@
         <v>319</v>
       </c>
       <c r="E10" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>313</v>
       </c>
@@ -4584,10 +4973,10 @@
         <v>331</v>
       </c>
       <c r="E11" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>313</v>
       </c>
@@ -4601,10 +4990,10 @@
         <v>334</v>
       </c>
       <c r="E12" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>313</v>
       </c>
@@ -4618,10 +5007,10 @@
         <v>76.5</v>
       </c>
       <c r="E13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>313</v>
       </c>
@@ -4635,10 +5024,10 @@
         <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>313</v>
       </c>
@@ -4652,10 +5041,10 @@
         <v>342</v>
       </c>
       <c r="E15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>313</v>
       </c>
@@ -4666,10 +5055,10 @@
         <v>344</v>
       </c>
       <c r="E16" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>313</v>
       </c>
@@ -4680,10 +5069,10 @@
         <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>313</v>
       </c>
@@ -4697,10 +5086,10 @@
         <v>349</v>
       </c>
       <c r="E18" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>313</v>
       </c>
@@ -4711,10 +5100,10 @@
         <v>351</v>
       </c>
       <c r="E19" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>313</v>
       </c>
@@ -4725,10 +5114,10 @@
         <v>353</v>
       </c>
       <c r="E20" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>313</v>
       </c>
@@ -4739,10 +5128,10 @@
         <v>355</v>
       </c>
       <c r="E21" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>313</v>
       </c>
@@ -4753,10 +5142,10 @@
         <v>357</v>
       </c>
       <c r="E22" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>313</v>
       </c>
@@ -4767,10 +5156,10 @@
         <v>359</v>
       </c>
       <c r="E23" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -4781,10 +5170,10 @@
         <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -4798,10 +5187,10 @@
         <v>364</v>
       </c>
       <c r="E25" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -4815,10 +5204,10 @@
         <v>367</v>
       </c>
       <c r="E26" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -4832,10 +5221,10 @@
         <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -4849,10 +5238,10 @@
         <v>342</v>
       </c>
       <c r="E28" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4863,10 +5252,10 @@
         <v>371</v>
       </c>
       <c r="E29" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -4877,10 +5266,10 @@
         <v>346</v>
       </c>
       <c r="E30" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -4894,10 +5283,10 @@
         <v>374</v>
       </c>
       <c r="E31" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -4908,10 +5297,10 @@
         <v>376</v>
       </c>
       <c r="E32" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>313</v>
       </c>
@@ -4922,10 +5311,10 @@
         <v>378</v>
       </c>
       <c r="E33" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>313</v>
       </c>
@@ -4936,10 +5325,10 @@
         <v>355</v>
       </c>
       <c r="E34" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -4950,10 +5339,10 @@
         <v>357</v>
       </c>
       <c r="E35" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>313</v>
       </c>
@@ -4964,10 +5353,10 @@
         <v>359</v>
       </c>
       <c r="E36" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>313</v>
       </c>
@@ -4978,10 +5367,10 @@
         <v>361</v>
       </c>
       <c r="E37" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>313</v>
       </c>
@@ -4995,10 +5384,10 @@
         <v>385</v>
       </c>
       <c r="E38" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>313</v>
       </c>
@@ -5012,10 +5401,10 @@
         <v>388</v>
       </c>
       <c r="E39" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>313</v>
       </c>
@@ -5029,10 +5418,10 @@
         <v>391</v>
       </c>
       <c r="E40" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>313</v>
       </c>
@@ -5046,10 +5435,10 @@
         <v>394</v>
       </c>
       <c r="E41" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>313</v>
       </c>
@@ -5063,10 +5452,10 @@
         <v>397</v>
       </c>
       <c r="E42" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>313</v>
       </c>
@@ -5080,10 +5469,10 @@
         <v>400</v>
       </c>
       <c r="E43" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>313</v>
       </c>
@@ -5097,10 +5486,10 @@
         <v>403</v>
       </c>
       <c r="E44" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>313</v>
       </c>
@@ -5114,10 +5503,10 @@
         <v>406</v>
       </c>
       <c r="E45" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>313</v>
       </c>
@@ -5131,10 +5520,10 @@
         <v>403</v>
       </c>
       <c r="E46" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>313</v>
       </c>
@@ -5148,10 +5537,10 @@
         <v>406</v>
       </c>
       <c r="E47" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>313</v>
       </c>
@@ -5165,10 +5554,10 @@
         <v>403</v>
       </c>
       <c r="E48" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>313</v>
       </c>
@@ -5182,10 +5571,10 @@
         <v>415</v>
       </c>
       <c r="E49" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>313</v>
       </c>
@@ -5199,10 +5588,10 @@
         <v>418</v>
       </c>
       <c r="E50" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>313</v>
       </c>
@@ -5216,10 +5605,10 @@
         <v>421</v>
       </c>
       <c r="E51" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>313</v>
       </c>
@@ -5233,10 +5622,10 @@
         <v>424</v>
       </c>
       <c r="E52" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -5250,10 +5639,10 @@
         <v>421</v>
       </c>
       <c r="E53" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>313</v>
       </c>
@@ -5267,10 +5656,10 @@
         <v>429</v>
       </c>
       <c r="E54" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>313</v>
       </c>
@@ -5284,10 +5673,10 @@
         <v>421</v>
       </c>
       <c r="E55" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>313</v>
       </c>
@@ -5301,10 +5690,10 @@
         <v>434</v>
       </c>
       <c r="E56" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>313</v>
       </c>
@@ -5318,10 +5707,10 @@
         <v>421</v>
       </c>
       <c r="E57" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>313</v>
       </c>
@@ -5335,7 +5724,7 @@
         <v>439</v>
       </c>
       <c r="E58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -5349,17 +5738,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="81.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="81.35546875" style="3" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -5367,10 +5756,10 @@
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -5378,10 +5767,10 @@
         <v>442</v>
       </c>
       <c r="C2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>443</v>
       </c>
@@ -5389,10 +5778,10 @@
         <v>444</v>
       </c>
       <c r="C3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>445</v>
       </c>
@@ -5400,10 +5789,10 @@
         <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -5411,10 +5800,10 @@
         <v>448</v>
       </c>
       <c r="C5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>449</v>
       </c>
@@ -5422,7 +5811,7 @@
         <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -5433,76 +5822,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
-    <col min="3" max="1025" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="22.78515625" customWidth="1"/>
+    <col min="4" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>440</v>
       </c>
       <c r="B1" t="s">
         <v>311</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>451</v>
       </c>
-      <c r="D1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>452</v>
       </c>
       <c r="B2" t="s">
         <v>453</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>454</v>
       </c>
-      <c r="D2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>455</v>
       </c>
       <c r="B3" t="s">
         <v>456</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>454</v>
       </c>
-      <c r="D3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>457</v>
       </c>
       <c r="B4" t="s">
         <v>458</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>454</v>
       </c>
-      <c r="D4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>459</v>
       </c>
@@ -5510,14 +5900,14 @@
         <f>"CCC Optional Tags 0xE3 and 0xE4 may be present or absent; if present are after tags listed in " &amp; A4 &amp; "and are in that order"</f>
         <v>CCC Optional Tags 0xE3 and 0xE4 may be present or absent; if present are after tags listed in 73-4.3and are in that order</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>454</v>
       </c>
-      <c r="D5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>460</v>
       </c>
@@ -5525,436 +5915,437 @@
         <f>"CCC Tag 0xFE present and after any tags from " &amp; A4 &amp; " and " &amp; A5</f>
         <v>CCC Tag 0xFE present and after any tags from 73-4.3 and 73-4.4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>454</v>
       </c>
-      <c r="D6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
         <v>463</v>
       </c>
-      <c r="D7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>465</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>454</v>
       </c>
-      <c r="D8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>467</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>454</v>
       </c>
-      <c r="D9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>468</v>
       </c>
       <c r="B10" t="s">
         <v>469</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>454</v>
       </c>
-      <c r="D10" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>470</v>
       </c>
       <c r="B11" t="s">
         <v>471</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>454</v>
       </c>
-      <c r="D11" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>472</v>
       </c>
       <c r="B12" t="s">
         <v>473</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>454</v>
       </c>
-      <c r="D12" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>474</v>
       </c>
       <c r="B13" t="s">
         <v>475</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>454</v>
       </c>
-      <c r="D13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>476</v>
       </c>
       <c r="B14" t="s">
         <v>477</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>454</v>
       </c>
-      <c r="D14" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>478</v>
       </c>
       <c r="B15" t="s">
         <v>479</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>454</v>
       </c>
-      <c r="D15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>480</v>
       </c>
       <c r="B16" t="s">
         <v>481</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>454</v>
       </c>
-      <c r="D16" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>482</v>
       </c>
       <c r="B17" t="s">
         <v>483</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>454</v>
       </c>
-      <c r="D17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>484</v>
       </c>
       <c r="B18" t="s">
         <v>485</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>454</v>
       </c>
-      <c r="D18" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>486</v>
       </c>
       <c r="B19" t="s">
         <v>487</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>454</v>
       </c>
-      <c r="D19" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>488</v>
       </c>
       <c r="B20" t="s">
         <v>489</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>454</v>
       </c>
-      <c r="D20" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>490</v>
       </c>
       <c r="B21" t="s">
         <v>491</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>454</v>
       </c>
-      <c r="D21" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>492</v>
       </c>
       <c r="B22" t="s">
         <v>493</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>454</v>
       </c>
-      <c r="D22" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>494</v>
       </c>
       <c r="B23" t="s">
         <v>495</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>454</v>
       </c>
-      <c r="D23" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>496</v>
       </c>
       <c r="B24" t="s">
         <v>497</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>454</v>
       </c>
-      <c r="D24" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>498</v>
       </c>
       <c r="B25" t="s">
         <v>499</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>454</v>
       </c>
-      <c r="D25" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>500</v>
       </c>
       <c r="B26" t="s">
         <v>501</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>454</v>
       </c>
-      <c r="D26" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>502</v>
       </c>
       <c r="B27" t="s">
         <v>503</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>454</v>
       </c>
-      <c r="D27" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>504</v>
       </c>
       <c r="B28" t="s">
         <v>505</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>454</v>
       </c>
-      <c r="D28" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>506</v>
       </c>
       <c r="B29" t="s">
         <v>507</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>454</v>
       </c>
-      <c r="D29" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>508</v>
       </c>
       <c r="B30" t="s">
         <v>509</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>454</v>
       </c>
-      <c r="D30" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>510</v>
       </c>
       <c r="B31" t="s">
         <v>511</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>454</v>
       </c>
-      <c r="D31" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>512</v>
       </c>
       <c r="B32" t="s">
         <v>513</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>454</v>
       </c>
-      <c r="D32" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>514</v>
       </c>
       <c r="B33" t="s">
         <v>515</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>454</v>
       </c>
-      <c r="D33" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>516</v>
       </c>
       <c r="B34" t="s">
         <v>517</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>454</v>
       </c>
-      <c r="D34" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>518</v>
       </c>
       <c r="B35" t="s">
         <v>519</v>
       </c>
-      <c r="D35" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>520</v>
       </c>
       <c r="B36" t="s">
         <v>521</v>
       </c>
-      <c r="D36" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>522</v>
       </c>
       <c r="B37" t="s">
         <v>523</v>
       </c>
-      <c r="D37" t="s">
-        <v>689</v>
+      <c r="E37" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -5967,18 +6358,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C38"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" style="4" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>440</v>
       </c>
@@ -5986,10 +6377,10 @@
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>76.099999999999994</v>
       </c>
@@ -5997,10 +6388,10 @@
         <v>524</v>
       </c>
       <c r="C2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>525</v>
       </c>
@@ -6008,10 +6399,10 @@
         <v>526</v>
       </c>
       <c r="C3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>527</v>
       </c>
@@ -6019,10 +6410,10 @@
         <v>528</v>
       </c>
       <c r="C4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>529</v>
       </c>
@@ -6030,10 +6421,10 @@
         <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>367</v>
       </c>
@@ -6041,10 +6432,10 @@
         <v>531</v>
       </c>
       <c r="C6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>339</v>
       </c>
@@ -6052,10 +6443,10 @@
         <v>532</v>
       </c>
       <c r="C7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>342</v>
       </c>
@@ -6063,10 +6454,10 @@
         <v>533</v>
       </c>
       <c r="C8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>534</v>
       </c>
@@ -6074,21 +6465,21 @@
         <v>535</v>
       </c>
       <c r="C9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>536</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C10" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>537</v>
       </c>
@@ -6096,10 +6487,10 @@
         <v>538</v>
       </c>
       <c r="C11" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>539</v>
       </c>
@@ -6107,10 +6498,10 @@
         <v>540</v>
       </c>
       <c r="C12" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>541</v>
       </c>
@@ -6118,10 +6509,10 @@
         <v>542</v>
       </c>
       <c r="C13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>543</v>
       </c>
@@ -6129,10 +6520,10 @@
         <v>544</v>
       </c>
       <c r="C14" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>545</v>
       </c>
@@ -6140,10 +6531,10 @@
         <v>546</v>
       </c>
       <c r="C15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>547</v>
       </c>
@@ -6151,10 +6542,10 @@
         <v>548</v>
       </c>
       <c r="C16" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>549</v>
       </c>
@@ -6162,10 +6553,10 @@
         <v>550</v>
       </c>
       <c r="C17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>551</v>
       </c>
@@ -6173,10 +6564,10 @@
         <v>552</v>
       </c>
       <c r="C18" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>553</v>
       </c>
@@ -6184,10 +6575,10 @@
         <v>554</v>
       </c>
       <c r="C19" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>555</v>
       </c>
@@ -6195,10 +6586,10 @@
         <v>556</v>
       </c>
       <c r="C20" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>557</v>
       </c>
@@ -6206,10 +6597,10 @@
         <v>558</v>
       </c>
       <c r="C21" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>559</v>
       </c>
@@ -6217,10 +6608,10 @@
         <v>560</v>
       </c>
       <c r="C22" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>561</v>
       </c>
@@ -6228,10 +6619,10 @@
         <v>562</v>
       </c>
       <c r="C23" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>563</v>
       </c>
@@ -6239,10 +6630,10 @@
         <v>564</v>
       </c>
       <c r="C24" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>565</v>
       </c>
@@ -6250,10 +6641,10 @@
         <v>566</v>
       </c>
       <c r="C25" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>567</v>
       </c>
@@ -6261,10 +6652,10 @@
         <v>568</v>
       </c>
       <c r="C26" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>569</v>
       </c>
@@ -6272,10 +6663,10 @@
         <v>570</v>
       </c>
       <c r="C27" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>571</v>
       </c>
@@ -6283,10 +6674,10 @@
         <v>572</v>
       </c>
       <c r="C28" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>573</v>
       </c>
@@ -6294,10 +6685,10 @@
         <v>574</v>
       </c>
       <c r="C29" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>575</v>
       </c>
@@ -6305,10 +6696,10 @@
         <v>576</v>
       </c>
       <c r="C30" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>577</v>
       </c>
@@ -6316,10 +6707,10 @@
         <v>578</v>
       </c>
       <c r="C31" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>579</v>
       </c>
@@ -6327,10 +6718,10 @@
         <v>580</v>
       </c>
       <c r="C32" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>581</v>
       </c>
@@ -6338,10 +6729,10 @@
         <v>582</v>
       </c>
       <c r="C33" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>583</v>
       </c>
@@ -6349,10 +6740,10 @@
         <v>584</v>
       </c>
       <c r="C34" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>585</v>
       </c>
@@ -6360,10 +6751,10 @@
         <v>586</v>
       </c>
       <c r="C35" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>587</v>
       </c>
@@ -6371,10 +6762,10 @@
         <v>588</v>
       </c>
       <c r="C36" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>589</v>
       </c>
@@ -6382,10 +6773,10 @@
         <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>591</v>
       </c>
@@ -6393,7 +6784,7 @@
         <v>592</v>
       </c>
       <c r="C38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -6404,282 +6795,292 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="125.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.35546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.0703125" style="6" customWidth="1"/>
+    <col min="6" max="1026" width="10.5" style="6" customWidth="1"/>
+    <col min="1027" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="C8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C10" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="B11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C11" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C12" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="C14" t="s">
-        <v>688</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C16" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="47.6" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C18" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C19" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C20" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C21" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C22" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C23" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="B24" t="s">
-        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -6689,6 +7090,302 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399EA3E3-4AA3-43F2-9352-518C415C75CB}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="125.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.35546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.0703125" style="6" customWidth="1"/>
+    <col min="6" max="1026" width="10.5" style="6" customWidth="1"/>
+    <col min="1027" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -6696,14 +7393,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.640625" style="4" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>440</v>
       </c>
@@ -6711,298 +7408,40 @@
         <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>644</v>
-      </c>
       <c r="C4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="80.875" customWidth="1"/>
-    <col min="3" max="1025" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B4" t="s">
-        <v>650</v>
-      </c>
-      <c r="C4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>651</v>
-      </c>
-      <c r="B5" t="s">
-        <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>653</v>
-      </c>
-      <c r="B6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>655</v>
-      </c>
-      <c r="B7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>657</v>
-      </c>
-      <c r="B8" t="s">
-        <v>658</v>
-      </c>
-      <c r="C8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>659</v>
-      </c>
-      <c r="B9" t="s">
-        <v>660</v>
-      </c>
-      <c r="C9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>661</v>
-      </c>
-      <c r="B10" t="s">
-        <v>662</v>
-      </c>
-      <c r="C10" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>663</v>
-      </c>
-      <c r="B11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C11" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>665</v>
-      </c>
-      <c r="B12" t="s">
-        <v>666</v>
-      </c>
-      <c r="C12" t="s">
-        <v>688</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>668</v>
-      </c>
-      <c r="B13" t="s">
-        <v>669</v>
-      </c>
-      <c r="C13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>670</v>
-      </c>
-      <c r="B14" t="s">
-        <v>671</v>
-      </c>
-      <c r="C14" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>672</v>
-      </c>
-      <c r="B15" t="s">
-        <v>673</v>
-      </c>
-      <c r="C15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>674</v>
-      </c>
-      <c r="B16" t="s">
-        <v>675</v>
-      </c>
-      <c r="C16" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>676</v>
-      </c>
-      <c r="B17" t="s">
-        <v>677</v>
-      </c>
-      <c r="C17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>678</v>
-      </c>
-      <c r="B18" t="s">
-        <v>679</v>
-      </c>
-      <c r="C18" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>680</v>
-      </c>
-      <c r="B19" t="s">
-        <v>681</v>
-      </c>
-      <c r="C19" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>682</v>
-      </c>
-      <c r="B20" t="s">
-        <v>683</v>
-      </c>
-      <c r="C20" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>684</v>
-      </c>
-      <c r="B21" t="s">
-        <v>685</v>
-      </c>
-      <c r="C21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -7012,30 +7451,292 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="75.625" customWidth="1"/>
-    <col min="3" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
+    <col min="2" max="3" width="44.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" style="6" customWidth="1"/>
+    <col min="6" max="1026" width="10.5" style="6" customWidth="1"/>
+    <col min="1027" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>311</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>